--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867F6D74-666C-1545-B7E1-6664604FE604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DFBD5C-3A2B-40D7-8A8A-77882CABDD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20860" yWindow="4580" windowWidth="29140" windowHeight="18160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,21 +462,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="4" width="12.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -491,7 +491,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -506,7 +506,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -521,7 +521,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -532,37 +532,33 @@
         <v>20101</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="4"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
